--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -250,6 +250,111 @@
   </si>
   <si>
     <t>SCRIPT/P01P01A/um0402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder why we had such an\nawful stench in our guild…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a mystery! Eek!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, откуда появился\nэтот ужасный запах...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Настоящая загадка! Иии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ïóëôäà ðïÿâéìòÿ\nüóïó ôçàòîúê èàðàö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàòóïÿþàÿ èàãàäëà! Ééé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well...complaining about the\nsmell doesn\'t help.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0608.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-ж... Жаловаться на запах\nбессмысленно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-ç... Çàìïâàóûòÿ îà èàðàö\náåòòíúòìåîîï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone\'s quite excited about\nthe upcoming expedition. Eek!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We all should work hard so we\nget chosen for the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все очень рады новой экспедиции.\nИии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы все должны постараться, чтобы\nнас взяли в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ïœåîû ñàäú îïâïê üëòðåäéøéé.\nÉéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âòå äïìçîú ðïòóàñàóûòÿ, œóïáú\nîàò âèÿìé â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0702.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The members haven\'t been\nchosen yet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must never give up! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Членов экспедиции ещё не\nвыбирали!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не должны сдаваться! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œìåîïâ üëòðåäéøéé åþæ îå\nâúáéñàìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå äïìçîú òäàâàóûòÿ! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The expedition will be a very\nlong journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It will be even harder if you\ndon\'t take the right supplies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We all should get properly\nstocked up before we go see [CS:N]Chatot[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Экспедиция будет очень долгой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если не взять нужных припасов,\nона станет только сложнее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, прежде чем идти к\n[CS:N]Чатоту[CR], нам всем нужно запастись вещами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üëòðåäéøéÿ áôäåó ïœåîû äïìãïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé îå âèÿóû îôçîúö ðñéðàòïâ,\nïîà òóàîåó óïìûëï òìïçîåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, ðñåçäå œåí éäóé ë\n[CS:N]Œàóïóô[CR], îàí âòåí îôçîï èàðàòóéòû âåþàíé.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,11 +434,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -357,6 +473,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,17 +1109,176 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
         <v>668</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="4">
+        <v>643</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>646</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="9">
+        <v>624</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="4">
+        <v>602</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>605</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="4">
+        <v>580</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
+        <v>583</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="4">
+        <v>555</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>558</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>561</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -355,6 +355,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïüóïíô, ðñåçäå œåí éäóé ë\n[CS:N]Œàóïóô[CR], îàí âòåí îôçîï èàðàòóéòû âåþàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh my gosh! I got to meet the\nfamous [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s such an honor! Yippee!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О боже мой! Я встретилась с\nизвестным [CS:N]Даскнуаром[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это такая честь! Ураааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï áïçå íïê! Ÿ âòóñåóéìàòû ò\néèâåòóîúí [CS:N]Äàòëîôàñïí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óàëàÿ œåòóû! Ôñàààà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I had the chance to chat with\nthe great [CS:N]Dusknoir[CR] the other day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I must say that [CS:N]Dusknoir[CR] is\nincredibly worldly and wise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s a wealth of hints and tips\nfor exploring too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'s so very inspiring!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Недавно я смогла пообщаться\nс [CS:N]Даскнуаром[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должна сказать, что [CS:N]Даскнуар[CR]\nневероятно открытый и мудрый.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё он знает множество моментов,\nполезных для исследований.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он так меня вдохновляет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåäàâîï ÿ òíïãìà ðïïáþàóûòÿ\nò [CS:N]Äàòëîôàñïí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîà òëàèàóû, œóï [CS:N]Äàòëîôàñ[CR]\nîåâåñïÿóîï ïóëñúóúê é íôäñúê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ ïî èîàåó íîïçåòóâï íïíåîóïâ,\nðïìåèîúö äìÿ éòòìåäïâàîéê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî óàë íåîÿ âäïöîïâìÿåó!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1113.ssb</t>
   </si>
 </sst>
 </file>
@@ -761,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,18 +1330,113 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
+    <row r="33" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
         <v>561</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4">
+        <v>533</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
+        <v>536</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="4">
+        <v>505</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4">
+        <v>508</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>511</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>514</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -418,6 +418,93 @@
   </si>
   <si>
     <t>SCRIPT/G01P03A/um1113.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ ïäéî ðñåëñàòîúê äåîû, œóïáú\nðïíïãàóû Ðïëåíïîàí â áåäå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё один прекрасный день, чтобы\nпомогать Покемонам в беде!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s another day of helping\nPokémon in need!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must capture that dreadful\n[CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны поймать этого\nужасного [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú ðïêíàóû üóïãï\nôçàòîïãï [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/um1301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The three of us--[CS:N]Bidoof[CR],\n[CS:N]Dugtrio[CR], and I--were supposed to go to\n[CS:P]Crystal Cave[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While we weren\'t paying\nattention, [CS:N]Dugtrio[CR] went off somewhere\nby himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where has he gotten to...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll leave when [CS:N]Dugtrio[CR] decides\nto join us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наша троица - [CS:N]Бидуф[CR], [CS:N]Дагтрио[CR]\nи я, должны были отправиться к [CS:P]Кристальным\nПещерам[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но когда мы отвернулись,\n[CS:N]Дагтрио[CR] куда-то исчез.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И куда он делся?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда [CS:N]Дагтрио[CR] решит вернуться,\nмы отправимся в путь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšà óñïéøà - [CS:N]Áéäôõ[CR], [CS:N]Äàãóñéï[CR]\né ÿ, äïìçîú áúìé ïóðñàâéóûòÿ ë [CS:P]Ëñéòóàìûîúí\nÐåþåñàí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ëïãäà íú ïóâåñîôìéòû,\n[CS:N]Äàãóñéï[CR] ëôäà-óï éòœåè.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ëôäà ïî äåìòÿ?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà [CS:N]Äàãóñéï[CR] ñåšéó âåñîôóûòÿ,\níú ïóðñàâéíòÿ â ðôóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should let the great [CS:N]Dusknoir[CR]\nhandle that horrid [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all, I\'m sure that it would\ntake someone as great as [CS:N]Dusknoir[CR] to capture\n[CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны позволить великому\n[CS:N]Даскнуару[CR] разобраться с этим ужасным\n[CS:N]Гровайлом[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В конце-концов, я уверена, что\nтолько великому [CS:N]Даскнуару[CR] по силам поймать\n[CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú ðïèâïìéóû âåìéëïíô\n[CS:N]Äàòëîôàñô[CR] ñàèïáñàóûòÿ ò üóéí ôçàòîúí\n[CS:N]Ãñïâàêìïí[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ëïîøå-ëïîøïâ, ÿ ôâåñåîà, œóï\nóïìûëï âåìéëïíô [CS:N]Äàòëîôàñô[CR] ðï òéìàí ðïêíàóû\n[CS:N]Ãñïâàêìà[CR].</t>
   </si>
 </sst>
 </file>
@@ -512,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -542,6 +629,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,17 +1519,152 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
         <v>514</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="11">
+        <v>486</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="9">
+        <v>465</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="4">
+        <v>439</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>442</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>445</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
+        <v>448</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="4">
+        <v>417</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>420</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -505,6 +505,48 @@
   </si>
   <si>
     <t xml:space="preserve"> Â ëïîøå-ëïîøïâ, ÿ ôâåñåîà, œóï\nóïìûëï âåìéëïíô [CS:N]Äàòëîôàñô[CR] ðï òéìàí ðïêíàóû\n[CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The horrible enemies within\n[CS:P]Brine Cave[CR]...[K] What do you suppose they are?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Eek! Thinking about them\nfrightens me!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ужасные враги в [CS:P]Пещере у Моря[CR]...[K]\nКак думаете, кто они?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Иии! Даже одна мысль о них\nпугает меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôçàòîúå âñàãé â [CS:P]Ðåþåñå ô Íïñÿ[CR]...[K]\nËàë äôíàåóå, ëóï ïîé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ééé! Äàçå ïäîà íúòìû ï îéö\nðôãàåó íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It will be all right![K]\nIt\'s [partner] and [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m certain that you will be able\nto stop the planet\'s paralysis!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё будет хорошо![K]\nВы же [partner] и [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверена, что вам по силам\nостановить планетарный паралич!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ áôäåó öïñïšï![K]\nÂú çå [partner] é [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåîà, œóï âàí ðï òéìàí\nïòóàîïâéóû ðìàîåóàñîúê ðàñàìéœ!</t>
   </si>
 </sst>
 </file>
@@ -917,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,17 +1696,81 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6">
         <v>420</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="7" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="4">
+        <v>395</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6">
+        <v>398</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="4">
+        <v>373</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>376</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -547,6 +547,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ ôâåñåîà, œóï âàí ðï òéìàí\nïòóàîïâéóû ðìàîåóàñîúê ðàñàìéœ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2508.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh? You want to know about the\ngrand master of all things bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let me put it as simply...[K]\nEeeeeeek!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой? Вы хотите знать о Гранд\nмастере всего самого плохого?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я просто скажу...[K]\nИиииииии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê? Âú öïóéóå èîàóû ï Ãñàîä\níàòóåñå âòåãï òàíïãï ðìïöïãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñïòóï òëàçô...[K]\nÉééééééé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time passes so quickly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It seems as if it were only\nyesterday that you two showed up at the guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The two of you then...[K] Oh, you\nwere adorable! Oh my gosh!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как же летит время!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кажется, что вы двое появились\nв гильдии только вчера.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда вы были...[K] О, вы были\nтакими очаровашками! О боже мой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë çå ìåóéó âñåíÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàçåóòÿ, œóï âú äâïå ðïÿâéìéòû\nâ ãéìûäéé óïìûëï âœåñà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà âú áúìé...[K] Ï, âú áúìé\nóàëéíé ïœàñïâàšëàíé! Ï áïçå íïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/G01P03A/us3101.ssb </t>
   </si>
 </sst>
 </file>
@@ -959,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,18 +1819,103 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="4">
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="6">
         <v>376</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="4">
+        <v>351</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="6">
+        <v>354</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="4">
+        <v>307</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="4">
+        <v>310</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>313</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -607,6 +607,195 @@
   </si>
   <si>
     <t xml:space="preserve">SCRIPT/G01P03A/us3101.ssb </t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re saying that you found that\nbaby\'s Egg at the [CS:P]Surrounded Sea[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh my gosh! How mysterious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы хотите сказать, что вы нашли\nЯйцо этого малыша в [CS:P]Закрытом Море[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О боже мой! Как загадочно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú öïóéóå òëàèàóû, œóï âú îàšìé\nŸêøï üóïãï íàìúšà â [CS:P]Èàëñúóïí Íïñå[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï áïçå íïê! Ëàë èàãàäïœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m worried for that baby\n[CS:N]Manaphy[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так переживаю за малютку\n[CS:N]Манафи[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë ðåñåçéâàý èà íàìýóëô\n[CS:N]Íàîàõé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s try to be cheerful! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нужно пытаться быть навеселе! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îôçîï ðúóàóûòÿ áúóû îàâåòåìå! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s make it another super day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пусть этот день станет ещё одним\nсупер-днём!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðôòóû üóïó äåîû òóàîåó åþæ ïäîéí\nòôðåñ-äîæí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yippee! I mean, yip-yip-yippee!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ураааа! Вернее, ура-ура-ураааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñàààà! Âåñîåå, ôñà-ôñà-ôñàààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard from [CS:N]Loudred[CR]\nand his team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:P]Aegis Cave[CR] sounds quite\nchallenging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was thinking of mounting my\nown challenge, but...[K]I\'m going to pass…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> До меня дошли вести о [CS:N]Лаудреде[CR]\nи его группе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Пещера Эгиды[CR] не такая уж и\nпростая.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думала пойти туда сама, но...[K]\nПожалуй, я откажусь от этой затеи...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äï íåîÿ äïšìé âåòóé ï [CS:N]Ìàôäñåäå[CR]\né åãï ãñôððå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Ðåþåñà Üãéäú[CR] îå óàëàÿ ôç é\nðñïòóàÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàìà ðïêóé óôäà òàíà, îï...[K]\nÐïçàìôê, ÿ ïóëàçôòû ïó üóïê èàóåé...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That Team [CS:X]Charm[CR]! Oh my gosh!\nThey were so cool!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just thinking about them makes\nme go, \"Oh...my...gosh!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [CS:X]Шарм[CR]! О боже мой!\nОни были такими классными!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Только от одной мысли о них\nхочется сказать: \"О... Боже... Мой!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [CS:X]Šàñí[CR]! Ï áïçå íïê!\nÏîé áúìé óàëéíé ëìàòòîúíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïìûëï ïó ïäîïê íúòìé ï îéö\nöïœåóòÿ òëàèàóû: \"Ï... Áïçå... Íïê!\"</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2005.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Mt. Travail[CR] is to the\neast of here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2008.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Гора Травейл[CR] находится на\nвостоке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Ãïñà Óñàâåêì[CR] îàöïäéóòÿ îà\nâïòóïëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What do you suppose exploring\na dream would be like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh my gosh! I can\'t\neven imagine!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2010.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как думаете, какого это -\nисследовать сон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О боже мой! Я и преставить себе\nэто не могу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë äôíàåóå, ëàëïãï üóï -\néòòìåäïâàóû òïî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï áïçå íïê! Ÿ é ðñåòóàâéóû òåáå\nüóï îå íïãô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh my! There\'s no telling what\ntraps are in store for you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please, please be careful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, пожалуйста, будьте\nосторожны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðïçàìôêòóà, áôäûóå\nïòóïñïçîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï áïçå íïê! Óñôäîï ðñåäòóàâéóû,\nœóï âàò óàí ðïäçéäàåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О боже мой! Трудно представить,\nчто вас там поджидает!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2210.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m going to explore all over\nagain today!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня я снова буду много\nисследовать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ ÿ òîïâà áôäô íîïãï\néòòìåäïâàóû!</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,18 +2093,302 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="4">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="6">
         <v>313</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="7" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="4">
+        <v>227</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
+        <v>230</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="9">
+        <v>208</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>189</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6">
+        <v>170</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="9">
+        <v>151</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>126</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>129</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6">
+        <v>132</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="4">
+        <v>104</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="6">
+        <v>107</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="4">
+        <v>82</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6">
+        <v>85</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="4">
+        <v>60</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6">
+        <v>63</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="4">
+        <v>38</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6">
+        <v>41</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="4">
+        <v>18</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Санфлора.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Òåãïäîÿ ÿ òîïâà áôäô íîïãï\néòòìåäïâàóû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2301.ssb</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="C71" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,6 +2394,11 @@
         <v>258</v>
       </c>
     </row>
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
